--- a/src/technology/pv-residential-large/pv-residential-large.xlsx
+++ b/src/technology/pv-residential-large/pv-residential-large.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhanes\GitHub\tyche\src\technology\pv-residential-large\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel-my.sharepoint.com/personal/tghosh_nrel_gov/Documents/work_NREL/tyche/tyche/src/technology/pv-residential-large/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7675BF1C-6985-477F-9037-D0E9EFA624BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7675BF1C-6985-477F-9037-D0E9EFA624BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14E9034F-0D91-724A-9D5E-4804A32819B8}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="6" xr2:uid="{919693B4-77B5-41B5-AA55-4D3552FB964A}"/>
+    <workbookView xWindow="53040" yWindow="1220" windowWidth="28120" windowHeight="16440" xr2:uid="{919693B4-77B5-41B5-AA55-4D3552FB964A}"/>
   </bookViews>
   <sheets>
     <sheet name="designs" sheetId="1" r:id="rId1"/>
@@ -1236,16 +1236,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070FB04D-2C74-445D-8DA3-54633B601228}">
   <dimension ref="A1:G300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1722,7 +1723,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1791,7 +1792,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1883,7 +1884,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1995,7 +1996,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2018,7 +2019,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -2314,7 +2315,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -2360,7 +2361,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>40</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>40</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>40</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>40</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>40</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>40</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>40</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>40</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>40</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>40</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>40</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>40</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>40</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>40</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>40</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>40</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>40</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>40</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>40</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>40</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>40</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>40</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>40</v>
       </c>
@@ -3955,7 +3956,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>40</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>40</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>40</v>
       </c>
@@ -4024,7 +4025,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>40</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>40</v>
       </c>
@@ -4067,7 +4068,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>40</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>40</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>40</v>
       </c>
@@ -4182,7 +4183,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>40</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>40</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>40</v>
       </c>
@@ -4251,7 +4252,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>40</v>
       </c>
@@ -4274,7 +4275,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>40</v>
       </c>
@@ -4297,7 +4298,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>40</v>
       </c>
@@ -4320,7 +4321,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>40</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>40</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>40</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>40</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>40</v>
       </c>
@@ -4432,7 +4433,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>40</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>40</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>40</v>
       </c>
@@ -4501,7 +4502,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>40</v>
       </c>
@@ -4524,7 +4525,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>40</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>40</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>40</v>
       </c>
@@ -4593,7 +4594,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>40</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>40</v>
       </c>
@@ -4639,7 +4640,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>40</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>40</v>
       </c>
@@ -4682,7 +4683,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>40</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>40</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>40</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>40</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>40</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>40</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>40</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>40</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>40</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>40</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>40</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>40</v>
       </c>
@@ -4978,7 +4979,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>40</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>40</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>40</v>
       </c>
@@ -5093,7 +5094,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>40</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>40</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>40</v>
       </c>
@@ -5162,7 +5163,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>40</v>
       </c>
@@ -5185,7 +5186,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>40</v>
       </c>
@@ -5208,7 +5209,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>40</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>40</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>40</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>40</v>
       </c>
@@ -5297,7 +5298,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>40</v>
       </c>
@@ -5320,7 +5321,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>40</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>40</v>
       </c>
@@ -5366,7 +5367,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>40</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>40</v>
       </c>
@@ -5412,7 +5413,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>40</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>40</v>
       </c>
@@ -5458,7 +5459,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>40</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>40</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>40</v>
       </c>
@@ -5527,7 +5528,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>40</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>40</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>40</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>40</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>40</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>40</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>40</v>
       </c>
@@ -5685,7 +5686,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>40</v>
       </c>
@@ -5708,7 +5709,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>40</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>40</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>40</v>
       </c>
@@ -5777,7 +5778,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>40</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>40</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>40</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>40</v>
       </c>
@@ -5889,7 +5890,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>40</v>
       </c>
@@ -5912,7 +5913,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>40</v>
       </c>
@@ -5935,7 +5936,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>40</v>
       </c>
@@ -5958,7 +5959,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>40</v>
       </c>
@@ -5981,7 +5982,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>40</v>
       </c>
@@ -6004,7 +6005,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>40</v>
       </c>
@@ -6027,7 +6028,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>40</v>
       </c>
@@ -6050,7 +6051,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>40</v>
       </c>
@@ -6073,7 +6074,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>40</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>40</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>40</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>40</v>
       </c>
@@ -6162,7 +6163,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>40</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>40</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>40</v>
       </c>
@@ -6231,7 +6232,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>40</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>40</v>
       </c>
@@ -6277,7 +6278,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>40</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>40</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>40</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>40</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>40</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>40</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>40</v>
       </c>
@@ -6435,7 +6436,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>40</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>40</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>40</v>
       </c>
@@ -6504,7 +6505,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>40</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>40</v>
       </c>
@@ -6550,7 +6551,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>40</v>
       </c>
@@ -6573,7 +6574,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>40</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>40</v>
       </c>
@@ -6619,7 +6620,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>40</v>
       </c>
@@ -6642,7 +6643,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>40</v>
       </c>
@@ -6665,7 +6666,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>40</v>
       </c>
@@ -6711,7 +6712,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>40</v>
       </c>
@@ -6731,7 +6732,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>40</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>40</v>
       </c>
@@ -6777,7 +6778,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>40</v>
       </c>
@@ -6800,7 +6801,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>40</v>
       </c>
@@ -6823,7 +6824,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>40</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>40</v>
       </c>
@@ -6869,7 +6870,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>40</v>
       </c>
@@ -6892,7 +6893,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>40</v>
       </c>
@@ -6915,7 +6916,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>40</v>
       </c>
@@ -6938,7 +6939,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>40</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>40</v>
       </c>
@@ -6984,7 +6985,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>40</v>
       </c>
@@ -7007,7 +7008,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>40</v>
       </c>
@@ -7027,7 +7028,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>40</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>40</v>
       </c>
@@ -7073,7 +7074,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>40</v>
       </c>
@@ -7096,7 +7097,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>40</v>
       </c>
@@ -7119,7 +7120,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>40</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>40</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>40</v>
       </c>
@@ -7188,7 +7189,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>40</v>
       </c>
@@ -7211,7 +7212,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>40</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>40</v>
       </c>
@@ -7257,7 +7258,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>40</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>40</v>
       </c>
@@ -7303,7 +7304,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>40</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>40</v>
       </c>
@@ -7346,7 +7347,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>40</v>
       </c>
@@ -7369,7 +7370,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>40</v>
       </c>
@@ -7392,7 +7393,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>40</v>
       </c>
@@ -7415,7 +7416,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>40</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>40</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>40</v>
       </c>
@@ -7484,7 +7485,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>40</v>
       </c>
@@ -7507,7 +7508,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -7530,7 +7531,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>40</v>
       </c>
@@ -7553,7 +7554,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>40</v>
       </c>
@@ -7576,7 +7577,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>40</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>40</v>
       </c>
@@ -7619,7 +7620,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>40</v>
       </c>
@@ -7642,7 +7643,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>40</v>
       </c>
@@ -7665,7 +7666,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>40</v>
       </c>
@@ -7688,7 +7689,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>40</v>
       </c>
@@ -7711,7 +7712,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>40</v>
       </c>
@@ -7734,7 +7735,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>40</v>
       </c>
@@ -7757,7 +7758,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>40</v>
       </c>
@@ -7780,7 +7781,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>40</v>
       </c>
@@ -7803,7 +7804,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>40</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>40</v>
       </c>
@@ -7849,7 +7850,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>40</v>
       </c>
@@ -7872,7 +7873,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>40</v>
       </c>
@@ -7895,7 +7896,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>40</v>
       </c>
@@ -7915,7 +7916,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>40</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>40</v>
       </c>
@@ -7961,7 +7962,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>40</v>
       </c>
@@ -7984,7 +7985,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>40</v>
       </c>
@@ -8007,7 +8008,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>40</v>
       </c>
@@ -8030,7 +8031,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>40</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>40</v>
       </c>
@@ -8087,9 +8088,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -8115,7 +8116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -8154,9 +8155,9 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -8176,7 +8177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -8193,7 +8194,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -8227,7 +8228,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -8244,7 +8245,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -8261,7 +8262,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -8295,7 +8296,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -8312,7 +8313,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -8329,7 +8330,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -8346,7 +8347,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -8363,7 +8364,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -8380,7 +8381,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -8397,7 +8398,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -8414,7 +8415,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -8442,9 +8443,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>207</v>
       </c>
@@ -8458,7 +8459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -8469,7 +8470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -8480,7 +8481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -8491,7 +8492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -8513,7 +8514,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>208</v>
       </c>
@@ -8524,7 +8525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>208</v>
       </c>
@@ -8535,7 +8536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>208</v>
       </c>
@@ -8546,7 +8547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -8557,7 +8558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -8568,7 +8569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -8579,7 +8580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -8590,7 +8591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -8601,7 +8602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>209</v>
       </c>
@@ -8612,7 +8613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>209</v>
       </c>
@@ -8623,7 +8624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>209</v>
       </c>
@@ -8634,7 +8635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -8645,7 +8646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>210</v>
       </c>
@@ -8656,7 +8657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>210</v>
       </c>
@@ -8667,7 +8668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>210</v>
       </c>
@@ -8678,7 +8679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>210</v>
       </c>
@@ -8689,7 +8690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>210</v>
       </c>
@@ -8700,7 +8701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>210</v>
       </c>
@@ -8711,7 +8712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>210</v>
       </c>
@@ -8735,9 +8736,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -8760,7 +8761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -8783,7 +8784,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -8806,7 +8807,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -8829,7 +8830,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -8852,7 +8853,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -8875,7 +8876,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -8898,7 +8899,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -8921,7 +8922,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -8967,7 +8968,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -8990,7 +8991,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -9013,7 +9014,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -9059,7 +9060,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -9082,7 +9083,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -9105,7 +9106,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -9128,7 +9129,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -9151,7 +9152,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -9174,7 +9175,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -9197,7 +9198,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -9220,7 +9221,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -9240,7 +9241,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -9260,7 +9261,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -9300,7 +9301,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -9323,7 +9324,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -9346,7 +9347,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -9369,7 +9370,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -9392,7 +9393,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -9415,7 +9416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -9438,7 +9439,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -9461,7 +9462,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -9484,7 +9485,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -9507,7 +9508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -9530,7 +9531,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -9553,7 +9554,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -9576,7 +9577,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -9599,7 +9600,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -9622,7 +9623,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -9645,7 +9646,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9668,7 +9669,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -9691,7 +9692,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -9714,7 +9715,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -9737,7 +9738,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -9760,7 +9761,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -9780,7 +9781,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -9800,7 +9801,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -9820,7 +9821,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -9840,7 +9841,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -9863,7 +9864,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -9886,7 +9887,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -9909,7 +9910,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -9932,7 +9933,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -9955,7 +9956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -9978,7 +9979,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -10001,7 +10002,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -10024,7 +10025,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -10047,7 +10048,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -10070,7 +10071,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -10093,7 +10094,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -10116,7 +10117,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -10162,7 +10163,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -10185,7 +10186,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -10208,7 +10209,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>40</v>
       </c>
@@ -10231,7 +10232,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -10254,7 +10255,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -10277,7 +10278,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>40</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -10320,7 +10321,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -10340,7 +10341,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -10360,7 +10361,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -10380,7 +10381,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -10403,7 +10404,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -10426,7 +10427,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -10449,7 +10450,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -10472,7 +10473,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -10495,7 +10496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -10518,7 +10519,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -10541,7 +10542,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -10564,7 +10565,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>40</v>
       </c>
@@ -10587,7 +10588,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -10610,7 +10611,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -10633,7 +10634,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -10656,7 +10657,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -10679,7 +10680,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -10702,7 +10703,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -10725,7 +10726,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>40</v>
       </c>
@@ -10748,7 +10749,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>40</v>
       </c>
@@ -10771,7 +10772,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -10817,7 +10818,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>40</v>
       </c>
@@ -10840,7 +10841,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>40</v>
       </c>
@@ -10860,7 +10861,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>40</v>
       </c>
@@ -10880,7 +10881,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>40</v>
       </c>
@@ -10900,7 +10901,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>40</v>
       </c>
@@ -10920,7 +10921,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>40</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -10966,7 +10967,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>40</v>
       </c>
@@ -10989,7 +10990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -11012,7 +11013,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -11035,7 +11036,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -11058,7 +11059,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -11081,7 +11082,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>40</v>
       </c>
@@ -11104,7 +11105,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -11127,7 +11128,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>40</v>
       </c>
@@ -11150,7 +11151,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -11173,7 +11174,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>40</v>
       </c>
@@ -11196,7 +11197,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -11219,7 +11220,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>40</v>
       </c>
@@ -11242,7 +11243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>40</v>
       </c>
@@ -11265,7 +11266,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -11288,7 +11289,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>40</v>
       </c>
@@ -11311,7 +11312,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>40</v>
       </c>
@@ -11334,7 +11335,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>40</v>
       </c>
@@ -11357,7 +11358,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>40</v>
       </c>
@@ -11380,7 +11381,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>40</v>
       </c>
@@ -11400,7 +11401,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>40</v>
       </c>
@@ -11420,7 +11421,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>40</v>
       </c>
@@ -11440,7 +11441,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>40</v>
       </c>
@@ -11460,7 +11461,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>40</v>
       </c>
@@ -11483,7 +11484,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>40</v>
       </c>
@@ -11506,7 +11507,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>40</v>
       </c>
@@ -11529,7 +11530,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>40</v>
       </c>
@@ -11552,7 +11553,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -11575,7 +11576,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>40</v>
       </c>
@@ -11598,7 +11599,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -11621,7 +11622,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>40</v>
       </c>
@@ -11644,7 +11645,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>40</v>
       </c>
@@ -11667,7 +11668,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>40</v>
       </c>
@@ -11690,7 +11691,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>40</v>
       </c>
@@ -11713,7 +11714,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>40</v>
       </c>
@@ -11736,7 +11737,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>40</v>
       </c>
@@ -11759,7 +11760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>40</v>
       </c>
@@ -11782,7 +11783,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>40</v>
       </c>
@@ -11805,7 +11806,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>40</v>
       </c>
@@ -11828,7 +11829,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>40</v>
       </c>
@@ -11851,7 +11852,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>40</v>
       </c>
@@ -11874,7 +11875,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>40</v>
       </c>
@@ -11897,7 +11898,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>40</v>
       </c>
@@ -11920,7 +11921,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>40</v>
       </c>
@@ -11940,7 +11941,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>40</v>
       </c>
@@ -11960,7 +11961,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>40</v>
       </c>
@@ -11980,7 +11981,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>40</v>
       </c>
@@ -12000,7 +12001,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>40</v>
       </c>
@@ -12023,7 +12024,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>40</v>
       </c>
@@ -12046,7 +12047,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>40</v>
       </c>
@@ -12069,7 +12070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>40</v>
       </c>
@@ -12092,7 +12093,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>40</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>40</v>
       </c>
@@ -12138,7 +12139,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>40</v>
       </c>
@@ -12161,7 +12162,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>40</v>
       </c>
@@ -12184,7 +12185,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>40</v>
       </c>
@@ -12207,7 +12208,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -12230,7 +12231,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>40</v>
       </c>
@@ -12253,7 +12254,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>40</v>
       </c>
@@ -12276,7 +12277,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>40</v>
       </c>
@@ -12299,7 +12300,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>40</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>40</v>
       </c>
@@ -12345,7 +12346,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>40</v>
       </c>
@@ -12368,7 +12369,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>40</v>
       </c>
@@ -12391,7 +12392,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>40</v>
       </c>
@@ -12414,7 +12415,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>40</v>
       </c>
@@ -12437,7 +12438,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -12460,7 +12461,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>40</v>
       </c>
@@ -12480,7 +12481,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -12500,7 +12501,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>40</v>
       </c>
@@ -12520,7 +12521,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>40</v>
       </c>
@@ -12540,7 +12541,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>40</v>
       </c>
@@ -12563,7 +12564,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>40</v>
       </c>
@@ -12586,7 +12587,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>40</v>
       </c>
@@ -12609,7 +12610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>40</v>
       </c>
@@ -12632,7 +12633,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>40</v>
       </c>
@@ -12655,7 +12656,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>40</v>
       </c>
@@ -12678,7 +12679,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>40</v>
       </c>
@@ -12701,7 +12702,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>40</v>
       </c>
@@ -12724,7 +12725,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>40</v>
       </c>
@@ -12747,7 +12748,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>40</v>
       </c>
@@ -12770,7 +12771,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>40</v>
       </c>
@@ -12793,7 +12794,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>40</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>40</v>
       </c>
@@ -12839,7 +12840,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>40</v>
       </c>
@@ -12862,7 +12863,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>40</v>
       </c>
@@ -12885,7 +12886,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>40</v>
       </c>
@@ -12908,7 +12909,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>40</v>
       </c>
@@ -12931,7 +12932,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>40</v>
       </c>
@@ -12954,7 +12955,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>40</v>
       </c>
@@ -12977,7 +12978,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>40</v>
       </c>
@@ -13000,7 +13001,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>40</v>
       </c>
@@ -13020,7 +13021,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>40</v>
       </c>
@@ -13040,7 +13041,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>40</v>
       </c>
@@ -13060,7 +13061,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>40</v>
       </c>
@@ -13080,7 +13081,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>40</v>
       </c>
@@ -13103,7 +13104,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>40</v>
       </c>
@@ -13126,7 +13127,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>40</v>
       </c>
@@ -13149,7 +13150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>40</v>
       </c>
@@ -13172,7 +13173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>40</v>
       </c>
@@ -13195,7 +13196,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>40</v>
       </c>
@@ -13218,7 +13219,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>40</v>
       </c>
@@ -13241,7 +13242,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>40</v>
       </c>
@@ -13264,7 +13265,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -13287,7 +13288,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>40</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>40</v>
       </c>
@@ -13333,7 +13334,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>40</v>
       </c>
@@ -13356,7 +13357,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>40</v>
       </c>
@@ -13379,7 +13380,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>40</v>
       </c>
@@ -13402,7 +13403,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>40</v>
       </c>
@@ -13425,7 +13426,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>40</v>
       </c>
@@ -13448,7 +13449,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>40</v>
       </c>
@@ -13471,7 +13472,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>40</v>
       </c>
@@ -13494,7 +13495,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>40</v>
       </c>
@@ -13517,7 +13518,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>40</v>
       </c>
@@ -13540,7 +13541,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>40</v>
       </c>
@@ -13560,7 +13561,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>40</v>
       </c>
@@ -13580,7 +13581,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>40</v>
       </c>
@@ -13600,7 +13601,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>40</v>
       </c>
@@ -13620,7 +13621,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>40</v>
       </c>
@@ -13643,7 +13644,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>40</v>
       </c>
@@ -13666,7 +13667,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>40</v>
       </c>
@@ -13689,7 +13690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>40</v>
       </c>
@@ -13712,7 +13713,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>40</v>
       </c>
@@ -13735,7 +13736,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>40</v>
       </c>
@@ -13758,7 +13759,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>40</v>
       </c>
@@ -13781,7 +13782,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>40</v>
       </c>
@@ -13804,7 +13805,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>40</v>
       </c>
@@ -13827,7 +13828,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>40</v>
       </c>
@@ -13850,7 +13851,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>40</v>
       </c>
@@ -13873,7 +13874,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>40</v>
       </c>
@@ -13896,7 +13897,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>40</v>
       </c>
@@ -13919,7 +13920,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>40</v>
       </c>
@@ -13942,7 +13943,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>40</v>
       </c>
@@ -13965,7 +13966,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>40</v>
       </c>
@@ -13988,7 +13989,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>40</v>
       </c>
@@ -14011,7 +14012,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>40</v>
       </c>
@@ -14034,7 +14035,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>40</v>
       </c>
@@ -14057,7 +14058,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>40</v>
       </c>
@@ -14080,7 +14081,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>40</v>
       </c>
@@ -14100,7 +14101,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -14120,7 +14121,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>40</v>
       </c>
@@ -14140,7 +14141,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>40</v>
       </c>
@@ -14160,7 +14161,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>40</v>
       </c>
@@ -14183,7 +14184,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>40</v>
       </c>
@@ -14206,7 +14207,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>40</v>
       </c>
@@ -14229,7 +14230,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>40</v>
       </c>
@@ -14252,7 +14253,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>40</v>
       </c>
@@ -14275,7 +14276,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>40</v>
       </c>
@@ -14298,7 +14299,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>40</v>
       </c>
@@ -14321,7 +14322,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>40</v>
       </c>
@@ -14344,7 +14345,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>40</v>
       </c>
@@ -14367,7 +14368,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>40</v>
       </c>
@@ -14390,7 +14391,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>40</v>
       </c>
@@ -14413,7 +14414,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>40</v>
       </c>
@@ -14436,7 +14437,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>40</v>
       </c>
@@ -14459,7 +14460,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>40</v>
       </c>
@@ -14482,7 +14483,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>40</v>
       </c>
@@ -14505,7 +14506,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>40</v>
       </c>
@@ -14528,7 +14529,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>40</v>
       </c>
@@ -14551,7 +14552,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>40</v>
       </c>
@@ -14574,7 +14575,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>40</v>
       </c>
@@ -14597,7 +14598,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>40</v>
       </c>
@@ -14620,7 +14621,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>40</v>
       </c>
@@ -14640,7 +14641,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>40</v>
       </c>
@@ -14660,7 +14661,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>40</v>
       </c>
@@ -14680,7 +14681,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>40</v>
       </c>
@@ -14700,7 +14701,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>40</v>
       </c>
@@ -14723,7 +14724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>40</v>
       </c>
@@ -14746,7 +14747,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>40</v>
       </c>
@@ -14769,7 +14770,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>40</v>
       </c>
@@ -14792,7 +14793,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>40</v>
       </c>
@@ -14815,7 +14816,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>40</v>
       </c>
@@ -14838,7 +14839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>40</v>
       </c>
@@ -14861,7 +14862,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>40</v>
       </c>
@@ -14884,7 +14885,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>40</v>
       </c>
@@ -14907,7 +14908,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>40</v>
       </c>
@@ -14930,7 +14931,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -14953,7 +14954,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>40</v>
       </c>
@@ -14976,7 +14977,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>40</v>
       </c>
@@ -14999,7 +15000,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>40</v>
       </c>
@@ -15022,7 +15023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>40</v>
       </c>
@@ -15045,7 +15046,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>40</v>
       </c>
@@ -15068,7 +15069,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>40</v>
       </c>
@@ -15091,7 +15092,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>40</v>
       </c>
@@ -15114,7 +15115,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>40</v>
       </c>
@@ -15137,7 +15138,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>40</v>
       </c>
@@ -15160,7 +15161,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>40</v>
       </c>
@@ -15180,7 +15181,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>40</v>
       </c>
@@ -15200,7 +15201,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>40</v>
       </c>
@@ -15220,7 +15221,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>40</v>
       </c>
@@ -15240,7 +15241,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>40</v>
       </c>
@@ -15263,7 +15264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>40</v>
       </c>
@@ -15286,7 +15287,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>40</v>
       </c>
@@ -15309,7 +15310,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>40</v>
       </c>
@@ -15332,7 +15333,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>40</v>
       </c>
@@ -15355,7 +15356,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>40</v>
       </c>
@@ -15378,7 +15379,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>40</v>
       </c>
@@ -15401,7 +15402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>40</v>
       </c>
@@ -15424,7 +15425,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>40</v>
       </c>
@@ -15447,7 +15448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>40</v>
       </c>
@@ -15470,7 +15471,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>40</v>
       </c>
@@ -15493,7 +15494,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>40</v>
       </c>
@@ -15516,7 +15517,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>40</v>
       </c>
@@ -15539,7 +15540,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>40</v>
       </c>
@@ -15562,7 +15563,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>40</v>
       </c>
@@ -15585,7 +15586,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>40</v>
       </c>
@@ -15608,7 +15609,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>40</v>
       </c>
@@ -15631,7 +15632,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>40</v>
       </c>
@@ -15654,7 +15655,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>40</v>
       </c>
@@ -15677,7 +15678,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>40</v>
       </c>
@@ -15700,7 +15701,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>40</v>
       </c>
@@ -15720,7 +15721,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>40</v>
       </c>
@@ -15740,7 +15741,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>40</v>
       </c>
@@ -15760,7 +15761,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -15780,7 +15781,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>40</v>
       </c>
@@ -15803,7 +15804,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>40</v>
       </c>
@@ -15826,7 +15827,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>40</v>
       </c>
@@ -15849,7 +15850,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>40</v>
       </c>
@@ -15872,7 +15873,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>40</v>
       </c>
@@ -15895,7 +15896,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>40</v>
       </c>
@@ -15918,7 +15919,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>40</v>
       </c>
@@ -15941,7 +15942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>40</v>
       </c>
@@ -15964,7 +15965,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>40</v>
       </c>
@@ -15987,7 +15988,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>40</v>
       </c>
@@ -16010,7 +16011,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>40</v>
       </c>
@@ -16033,7 +16034,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>40</v>
       </c>
@@ -16056,7 +16057,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>40</v>
       </c>
@@ -16079,7 +16080,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>40</v>
       </c>
@@ -16102,7 +16103,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>40</v>
       </c>
@@ -16125,7 +16126,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>40</v>
       </c>
@@ -16148,7 +16149,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>40</v>
       </c>
@@ -16171,7 +16172,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>40</v>
       </c>
@@ -16194,7 +16195,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>40</v>
       </c>
@@ -16217,7 +16218,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>40</v>
       </c>
@@ -16240,7 +16241,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>40</v>
       </c>
@@ -16260,7 +16261,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>40</v>
       </c>
@@ -16280,7 +16281,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>40</v>
       </c>
@@ -16300,7 +16301,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>40</v>
       </c>
@@ -16320,7 +16321,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>40</v>
       </c>
@@ -16343,7 +16344,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>40</v>
       </c>
@@ -16366,7 +16367,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>40</v>
       </c>
@@ -16389,7 +16390,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>40</v>
       </c>
@@ -16412,7 +16413,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>40</v>
       </c>
@@ -16435,7 +16436,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>40</v>
       </c>
@@ -16458,7 +16459,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>40</v>
       </c>
@@ -16481,7 +16482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>40</v>
       </c>
@@ -16504,7 +16505,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>40</v>
       </c>
@@ -16527,7 +16528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>40</v>
       </c>
@@ -16550,7 +16551,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>40</v>
       </c>
@@ -16573,7 +16574,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>40</v>
       </c>
@@ -16596,7 +16597,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -16619,7 +16620,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>40</v>
       </c>
@@ -16642,7 +16643,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>40</v>
       </c>
@@ -16665,7 +16666,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>40</v>
       </c>
@@ -16688,7 +16689,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>40</v>
       </c>
@@ -16711,7 +16712,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>40</v>
       </c>
@@ -16734,7 +16735,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>40</v>
       </c>
@@ -16757,7 +16758,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>40</v>
       </c>
@@ -16780,7 +16781,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>40</v>
       </c>
@@ -16800,7 +16801,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>40</v>
       </c>
@@ -16820,7 +16821,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>40</v>
       </c>
@@ -16840,7 +16841,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>40</v>
       </c>
@@ -16860,7 +16861,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>40</v>
       </c>
@@ -16883,7 +16884,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>40</v>
       </c>
@@ -16906,7 +16907,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>40</v>
       </c>
@@ -16929,7 +16930,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>40</v>
       </c>
@@ -16952,7 +16953,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>40</v>
       </c>
@@ -16975,7 +16976,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>40</v>
       </c>
@@ -16998,7 +16999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>40</v>
       </c>
@@ -17021,7 +17022,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>40</v>
       </c>
@@ -17044,7 +17045,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>40</v>
       </c>
@@ -17067,7 +17068,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>40</v>
       </c>
@@ -17090,7 +17091,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>40</v>
       </c>
@@ -17113,7 +17114,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>40</v>
       </c>
@@ -17136,7 +17137,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>40</v>
       </c>
@@ -17159,7 +17160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>40</v>
       </c>
@@ -17182,7 +17183,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>40</v>
       </c>
@@ -17205,7 +17206,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>40</v>
       </c>
@@ -17228,7 +17229,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>40</v>
       </c>
@@ -17251,7 +17252,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>40</v>
       </c>
@@ -17274,7 +17275,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>40</v>
       </c>
@@ -17297,7 +17298,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>40</v>
       </c>
@@ -17320,7 +17321,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>40</v>
       </c>
@@ -17340,7 +17341,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>40</v>
       </c>
@@ -17360,7 +17361,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>40</v>
       </c>
@@ -17380,7 +17381,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>40</v>
       </c>
@@ -17400,7 +17401,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>40</v>
       </c>
@@ -17423,7 +17424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -17446,7 +17447,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>40</v>
       </c>
@@ -17469,7 +17470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>40</v>
       </c>
@@ -17492,7 +17493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>40</v>
       </c>
@@ -17515,7 +17516,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>40</v>
       </c>
@@ -17538,7 +17539,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>40</v>
       </c>
@@ -17561,7 +17562,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>40</v>
       </c>
@@ -17584,7 +17585,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>40</v>
       </c>
@@ -17607,7 +17608,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>40</v>
       </c>
@@ -17630,7 +17631,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>40</v>
       </c>
@@ -17653,7 +17654,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>40</v>
       </c>
@@ -17676,7 +17677,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>40</v>
       </c>
@@ -17699,7 +17700,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>40</v>
       </c>
@@ -17722,7 +17723,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>40</v>
       </c>
@@ -17745,7 +17746,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>40</v>
       </c>
@@ -17768,7 +17769,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>40</v>
       </c>
@@ -17791,7 +17792,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>40</v>
       </c>
@@ -17814,7 +17815,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>40</v>
       </c>
@@ -17837,7 +17838,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>40</v>
       </c>
@@ -17860,7 +17861,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>40</v>
       </c>
@@ -17880,7 +17881,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>40</v>
       </c>
@@ -17900,7 +17901,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>40</v>
       </c>
@@ -17920,7 +17921,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>40</v>
       </c>
@@ -17940,7 +17941,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>40</v>
       </c>
@@ -17963,7 +17964,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>40</v>
       </c>
@@ -17986,7 +17987,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>40</v>
       </c>
@@ -18009,7 +18010,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>40</v>
       </c>
@@ -18032,7 +18033,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>40</v>
       </c>
@@ -18055,7 +18056,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>40</v>
       </c>
@@ -18078,7 +18079,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>40</v>
       </c>
@@ -18101,7 +18102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>40</v>
       </c>
@@ -18124,7 +18125,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>40</v>
       </c>
@@ -18147,7 +18148,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>40</v>
       </c>
@@ -18170,7 +18171,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>40</v>
       </c>
@@ -18193,7 +18194,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>40</v>
       </c>
@@ -18216,7 +18217,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>40</v>
       </c>
@@ -18239,7 +18240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>40</v>
       </c>
@@ -18262,7 +18263,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -18285,7 +18286,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>40</v>
       </c>
@@ -18308,7 +18309,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>40</v>
       </c>
@@ -18331,7 +18332,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>40</v>
       </c>
@@ -18354,7 +18355,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>40</v>
       </c>
@@ -18377,7 +18378,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>40</v>
       </c>
@@ -18400,7 +18401,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>40</v>
       </c>
@@ -18420,7 +18421,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>40</v>
       </c>
@@ -18440,7 +18441,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>40</v>
       </c>
@@ -18460,7 +18461,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>40</v>
       </c>
@@ -18480,7 +18481,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>40</v>
       </c>
@@ -18503,7 +18504,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>40</v>
       </c>
@@ -18526,7 +18527,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>40</v>
       </c>
@@ -18549,7 +18550,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>40</v>
       </c>
@@ -18572,7 +18573,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>40</v>
       </c>
@@ -18595,7 +18596,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>40</v>
       </c>
@@ -18618,7 +18619,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>40</v>
       </c>
@@ -18641,7 +18642,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>40</v>
       </c>
@@ -18664,7 +18665,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>40</v>
       </c>
@@ -18687,7 +18688,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>40</v>
       </c>
@@ -18710,7 +18711,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>40</v>
       </c>
@@ -18733,7 +18734,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>40</v>
       </c>
@@ -18756,7 +18757,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>40</v>
       </c>
@@ -18779,7 +18780,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>40</v>
       </c>
@@ -18802,7 +18803,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>40</v>
       </c>
@@ -18825,7 +18826,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>40</v>
       </c>
@@ -18848,7 +18849,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>40</v>
       </c>
@@ -18871,7 +18872,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>40</v>
       </c>
@@ -18894,7 +18895,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>40</v>
       </c>
@@ -18917,7 +18918,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>40</v>
       </c>
@@ -18940,7 +18941,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>40</v>
       </c>
@@ -18960,7 +18961,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>40</v>
       </c>
@@ -18980,7 +18981,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>40</v>
       </c>
@@ -19000,7 +19001,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>40</v>
       </c>
@@ -19020,7 +19021,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>40</v>
       </c>
@@ -19043,7 +19044,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>40</v>
       </c>
@@ -19066,7 +19067,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>40</v>
       </c>
@@ -19089,7 +19090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -19112,7 +19113,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>40</v>
       </c>
@@ -19135,7 +19136,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>40</v>
       </c>
@@ -19158,7 +19159,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>40</v>
       </c>
@@ -19181,7 +19182,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>40</v>
       </c>
@@ -19204,7 +19205,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>40</v>
       </c>
@@ -19227,7 +19228,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>40</v>
       </c>
@@ -19250,7 +19251,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>40</v>
       </c>
@@ -19273,7 +19274,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>40</v>
       </c>
@@ -19296,7 +19297,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>40</v>
       </c>
@@ -19319,7 +19320,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>40</v>
       </c>
@@ -19342,7 +19343,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>40</v>
       </c>
@@ -19365,7 +19366,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>40</v>
       </c>
@@ -19388,7 +19389,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>40</v>
       </c>
@@ -19411,7 +19412,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>40</v>
       </c>
@@ -19434,7 +19435,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>40</v>
       </c>
@@ -19457,7 +19458,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>40</v>
       </c>
@@ -19480,7 +19481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>40</v>
       </c>
@@ -19500,7 +19501,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>40</v>
       </c>
@@ -19520,7 +19521,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>40</v>
       </c>
@@ -19540,7 +19541,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>40</v>
       </c>
@@ -19560,7 +19561,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>40</v>
       </c>
@@ -19583,7 +19584,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>40</v>
       </c>
@@ -19606,7 +19607,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>40</v>
       </c>
@@ -19629,7 +19630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>40</v>
       </c>
@@ -19652,7 +19653,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>40</v>
       </c>
@@ -19675,7 +19676,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>40</v>
       </c>
@@ -19698,7 +19699,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>40</v>
       </c>
@@ -19721,7 +19722,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>40</v>
       </c>
@@ -19744,7 +19745,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>40</v>
       </c>
@@ -19767,7 +19768,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>40</v>
       </c>
@@ -19790,7 +19791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>40</v>
       </c>
@@ -19813,7 +19814,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>40</v>
       </c>
@@ -19836,7 +19837,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>40</v>
       </c>
@@ -19859,7 +19860,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>40</v>
       </c>
@@ -19882,7 +19883,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>40</v>
       </c>
@@ -19905,7 +19906,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>40</v>
       </c>
@@ -19928,7 +19929,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -19951,7 +19952,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>40</v>
       </c>
@@ -19974,7 +19975,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>40</v>
       </c>
@@ -19997,7 +19998,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>40</v>
       </c>
@@ -20020,7 +20021,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>40</v>
       </c>
@@ -20040,7 +20041,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>40</v>
       </c>
@@ -20060,7 +20061,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>40</v>
       </c>
@@ -20080,7 +20081,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>40</v>
       </c>
@@ -20100,7 +20101,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>40</v>
       </c>
@@ -20123,7 +20124,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>40</v>
       </c>
@@ -20146,7 +20147,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>40</v>
       </c>
@@ -20169,7 +20170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>40</v>
       </c>
@@ -20192,7 +20193,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>40</v>
       </c>
@@ -20215,7 +20216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>40</v>
       </c>
@@ -20238,7 +20239,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>40</v>
       </c>
@@ -20261,7 +20262,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>40</v>
       </c>
@@ -20284,7 +20285,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>40</v>
       </c>
@@ -20307,7 +20308,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>40</v>
       </c>
@@ -20330,7 +20331,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>40</v>
       </c>
@@ -20353,7 +20354,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>40</v>
       </c>
@@ -20376,7 +20377,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>40</v>
       </c>
@@ -20399,7 +20400,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>40</v>
       </c>
@@ -20422,7 +20423,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>40</v>
       </c>
@@ -20445,7 +20446,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>40</v>
       </c>
@@ -20468,7 +20469,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>40</v>
       </c>
@@ -20491,7 +20492,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>40</v>
       </c>
@@ -20514,7 +20515,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>40</v>
       </c>
@@ -20537,7 +20538,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>40</v>
       </c>
@@ -20560,7 +20561,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>40</v>
       </c>
@@ -20580,7 +20581,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>40</v>
       </c>
@@ -20600,7 +20601,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>40</v>
       </c>
@@ -20620,7 +20621,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>40</v>
       </c>
@@ -20640,7 +20641,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>40</v>
       </c>
@@ -20663,7 +20664,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>40</v>
       </c>
@@ -20686,7 +20687,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>40</v>
       </c>
@@ -20709,7 +20710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>40</v>
       </c>
@@ -20732,7 +20733,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>40</v>
       </c>
@@ -20755,7 +20756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>40</v>
       </c>
@@ -20778,7 +20779,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>40</v>
       </c>
@@ -20801,7 +20802,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>40</v>
       </c>
@@ -20824,7 +20825,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>40</v>
       </c>
@@ -20847,7 +20848,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>40</v>
       </c>
@@ -20870,7 +20871,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>40</v>
       </c>
@@ -20893,7 +20894,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>40</v>
       </c>
@@ -20916,7 +20917,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>40</v>
       </c>
@@ -20939,7 +20940,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>40</v>
       </c>
@@ -20962,7 +20963,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>40</v>
       </c>
@@ -20985,7 +20986,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>40</v>
       </c>
@@ -21008,7 +21009,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>40</v>
       </c>
@@ -21031,7 +21032,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>40</v>
       </c>
@@ -21054,7 +21055,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>40</v>
       </c>
@@ -21077,7 +21078,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>40</v>
       </c>
@@ -21100,7 +21101,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>40</v>
       </c>
@@ -21120,7 +21121,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>40</v>
       </c>
@@ -21140,7 +21141,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>40</v>
       </c>
@@ -21160,7 +21161,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>40</v>
       </c>
@@ -21191,9 +21192,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -21210,7 +21211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -21224,7 +21225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -21238,7 +21239,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -21252,7 +21253,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -21266,7 +21267,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -21280,7 +21281,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -21294,7 +21295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -21308,7 +21309,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -21322,7 +21323,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -21336,7 +21337,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -21350,7 +21351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -21364,7 +21365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -21387,18 +21388,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B490D8CD-E455-4024-A4A5-0FF6A3A9C116}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21412,7 +21413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -21423,7 +21424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -21434,7 +21435,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -21445,7 +21446,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -21456,7 +21457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -21467,7 +21468,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -21478,7 +21479,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -21489,7 +21490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -21500,7 +21501,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -21511,7 +21512,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -21522,7 +21523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -21533,7 +21534,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -21544,7 +21545,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -21555,7 +21556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -21566,7 +21567,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -21577,7 +21578,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -21588,7 +21589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -21599,7 +21600,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -21610,7 +21611,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -21621,7 +21622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -21632,7 +21633,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -21643,7 +21644,7 @@
         <v>9500000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -21654,7 +21655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -21665,7 +21666,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
